--- a/r4-kiola-main/StructureDefinition-participant-device-definition.xlsx
+++ b/r4-kiola-main/StructureDefinition-participant-device-definition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-11T08:55:33+00:00</t>
+    <t>2024-04-27T13:32:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -66,7 +66,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>AIT Austrian Institute of Technology (mailto:office@ait.ac.at)</t>
   </si>
   <si>
     <t>Description</t>
